--- a/expediaPrices.xlsx
+++ b/expediaPrices.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+  <si>
+    <t>22:00 - 07:35</t>
+  </si>
   <si>
     <t>02:00 - 04:05</t>
   </si>
@@ -25,52 +28,43 @@
     <t>07:15 - 09:20</t>
   </si>
   <si>
-    <t>06:30 - 08:50</t>
-  </si>
-  <si>
-    <t>13:05 - 19:15</t>
+    <t>09:00 - 11:05</t>
   </si>
   <si>
     <t>IndiGo</t>
   </si>
   <si>
+    <t>9h 35m (1 stop)</t>
+  </si>
+  <si>
     <t>2h 5m (Direct)</t>
   </si>
   <si>
-    <t>2h 20m (Direct)</t>
-  </si>
-  <si>
-    <t>6h 10m (1 stop)</t>
-  </si>
-  <si>
-    <t>₹9,982</t>
-  </si>
-  <si>
-    <t>₹10,507</t>
-  </si>
-  <si>
-    <t>3h 35m in Jaipur (JAI)</t>
-  </si>
-  <si>
-    <t>https://www.expedia.co.in/Flights-Search?flight-type=on&amp;mode=search&amp;trip=roundtrip&amp;leg1=from:Delhi%20(DEL%20-%20Indira%20Gandhi%20Intl.),to:Mumbai%20(BOM%20-%20Chhatrapati%20Shivaji%20Intl.),departure:20-5-2023TANYT&amp;leg2=from:Mumbai%20(BOM%20-%20Chhatrapati%20Shivaji%20Intl.),to:Delhi%20(DEL%20-%20Indira%20Gandhi%20Intl.),departure:25-5-2023TANYT&amp;options=cabinclass:economy&amp;fromDate=17/04/2023&amp;toDate=18/04/2023&amp;d1=2023-4-17&amp;d2=2023-4-18&amp;passengers=adults:1,infantinlap:N</t>
-  </si>
-  <si>
-    <t>₹10,674</t>
-  </si>
-  <si>
-    <t>Select and show fare information for IndiGo flight, departing at 02:00 from Delhi, arriving at 04:05 in Mumbai, Priced at ₹9,982 Return per traveller.  2 hours 5 minutes total travel time, Direct.</t>
-  </si>
-  <si>
-    <t>Select and show fare information for IndiGo flight, departing at 05:30 from Delhi, arriving at 07:35 in Mumbai, Priced at ₹10,507 Return per traveller.  2 hours 5 minutes total travel time, Direct.</t>
-  </si>
-  <si>
-    <t>Select and show fare information for IndiGo flight, departing at 07:15 from Delhi, arriving at 09:20 in Mumbai, Priced at ₹10,507 Return per traveller.  2 hours 5 minutes total travel time, Direct.</t>
-  </si>
-  <si>
-    <t>Select and show fare information for IndiGo flight, departing at 06:30 from Delhi, arriving at 08:50 in Mumbai, Priced at ₹10,507 Return per traveller.  2 hours 20 minutes total travel time, Direct.</t>
-  </si>
-  <si>
-    <t>Select and show fare information for IndiGo flight, departing at 13:05 from Delhi, arriving at 19:15 in Mumbai, Priced at ₹10,674 Return per traveller.  6 hours 10 minutes total travel time, One stop, Stopover for 3 hours 35 minutes in Jaipur.</t>
+    <t>7h in Jaipur (JAI)</t>
+  </si>
+  <si>
+    <t>₹9,975</t>
+  </si>
+  <si>
+    <t>₹9,407</t>
+  </si>
+  <si>
+    <t>https://www.expedia.co.in/Flights-Search?flight-type=on&amp;mode=search&amp;trip=roundtrip&amp;leg1=from:Delhi%20(DEL%20-%20Indira%20Gandhi%20Intl.),to:Mumbai%20(BOM%20-%20Chhatrapati%20Shivaji%20Intl.),departure:18/05/2023TANYT&amp;leg2=from:Mumbai%20(BOM%20-%20Chhatrapati%20Shivaji%20Intl.),to:Delhi%20(DEL%20-%20Indira%20Gandhi%20Intl.),departure:25/05/2023TANYT&amp;options=cabinclass:economy&amp;fromDate=17/04/2023&amp;toDate=18/04/2023&amp;d1=2023-4-17&amp;d2=2023-4-18&amp;passengers=adults:1,infantinlap:N</t>
+  </si>
+  <si>
+    <t>Select and show fare information for IndiGo flight, departing at 02:00 from Delhi, arriving at 04:05 in Mumbai, Priced at ₹9,975 Return per traveller.  2 hours 5 minutes total travel time, Direct.</t>
+  </si>
+  <si>
+    <t>Select and show fare information for IndiGo flight, departing at 05:30 from Delhi, arriving at 07:35 in Mumbai, Priced at ₹9,975 Return per traveller.  2 hours 5 minutes total travel time, Direct.</t>
+  </si>
+  <si>
+    <t>Select and show fare information for IndiGo flight, departing at 07:15 from Delhi, arriving at 09:20 in Mumbai, Priced at ₹9,975 Return per traveller.  2 hours 5 minutes total travel time, Direct.</t>
+  </si>
+  <si>
+    <t>Select and show fare information for IndiGo flight, departing at 09:00 from Delhi, arriving at 11:05 in Mumbai, Priced at ₹9,975 Return per traveller.  2 hours 5 minutes total travel time, Direct.</t>
+  </si>
+  <si>
+    <t>Select and show fare information for IndiGo flight, departing at 22:00 from Delhi, arriving at 07:35 in Mumbai, Priced at ₹9,407 Return per traveller. Arrives 1 day later. 9 hours 35 minutes total travel time, One stop, Stopover for 7 hours 0 minutes in Jaipur.</t>
   </si>
 </sst>
 </file>
@@ -481,13 +475,16 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -498,16 +495,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -518,16 +515,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -541,13 +538,13 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -558,28 +555,25 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
+      <c r="F7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
     <hyperlink ref="E4" r:id="rId3"/>
     <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="F7" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
